--- a/biology/Botanique/Cercidiphyllum_japonicum/Cercidiphyllum_japonicum.xlsx
+++ b/biology/Botanique/Cercidiphyllum_japonicum/Cercidiphyllum_japonicum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Katsura ou Arbre au caramel
 Cercidiphyllum japonicum est une espèce d'arbre à fleurs et à feuilles caduques de la famille des Cercidiphyllaceae.
@@ -513,7 +525,9 @@
           <t>État, pressions, menaces…</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est menacée en Chine, mais utilisée comme arbre d'ornement dans certains pays.
 </t>
@@ -544,13 +558,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre peut atteindre 30, voire 45 m dans son aire d'origine (Japon, Corée, Chine), mais ne semble pas dépasser les 15 m en Europe.
 Les feuilles sont cordiformes (en forme de cœur) et à marge crénelée. Elles ressemblent à celles de l'arbre de Judée (d'où l'origine du nom de genre Cercidiphyllum signifiant « feuilles de Cercis »). Elles deviennent rose à jaune à l'automne avant de tomber.
 L'espèce est dioïque. Elle est réputée être résistante aux parasites.
 Les fleurs, discrètes, apparaissent au début du printemps (mars/avril).
-Les fruits forment des grappes de deux à quatre fruits allongés de 1 à 1,8 cm de long et 2-3 mm de large. Chaque fruit contient plusieurs graines ailées [1],[2].
+Les fruits forment des grappes de deux à quatre fruits allongés de 1 à 1,8 cm de long et 2-3 mm de large. Chaque fruit contient plusieurs graines ailées ,.
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Japon, Corée, Chine.
 </t>
@@ -610,7 +628,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son bois foncé et dur est parfois utilisé à la conception de goban, plateau du jeu de go.
 </t>
@@ -641,9 +661,11 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2010 des chercheurs ont annoncé la mise au point de nouveaux marqueurs microsatellites pour cette espèce[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2010 des chercheurs ont annoncé la mise au point de nouveaux marqueurs microsatellites pour cette espèce.
 </t>
         </is>
       </c>
